--- a/experiments_logs/exp1/run_1/fine_tune_seed_24/run_1_fine_tune_seed_24_classification_report.xlsx
+++ b/experiments_logs/exp1/run_1/fine_tune_seed_24/run_1_fine_tune_seed_24_classification_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,75 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>macro avg</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cohen</t>
         </is>
@@ -482,28 +537,61 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>86.66666666666667</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>96.12903225806451</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="G2" t="n">
-        <v>96.66666666666667</v>
+        <v>87.5</v>
       </c>
       <c r="H2" t="n">
-        <v>96.64516129032259</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>94.83849483849484</v>
+        <v>81.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>76.47058823529412</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.94736842105263</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P2" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>88.90398035057477</v>
+      </c>
+      <c r="S2" t="n">
+        <v>88.90398035057478</v>
+      </c>
+      <c r="T2" t="n">
+        <v>87.14285714285714</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +601,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.30769230769231</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>92.30769230769231</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>96.12903225806451</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>96.15384615384616</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>96.12903225806451</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>94.83849483849484</v>
+        <v>86.66666666666667</v>
+      </c>
+      <c r="J3" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="N3" t="n">
+        <v>73.33333333333333</v>
+      </c>
+      <c r="O3" t="n">
+        <v>80</v>
+      </c>
+      <c r="P3" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>88.00000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>88</v>
+      </c>
+      <c r="T3" t="n">
+        <v>87.14285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -544,28 +665,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.00000000000001</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>96.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82.75862068965519</v>
+      </c>
+      <c r="F4" t="n">
+        <v>76.47058823529413</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90.32258064516128</v>
+      </c>
+      <c r="H4" t="n">
+        <v>96.55172413793103</v>
+      </c>
+      <c r="I4" t="n">
+        <v>83.87096774193549</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>88.23529411764706</v>
+      </c>
+      <c r="L4" t="n">
         <v>92.85714285714286</v>
       </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>96.12903225806451</v>
-      </c>
-      <c r="G4" t="n">
-        <v>96.21428571428572</v>
-      </c>
-      <c r="H4" t="n">
-        <v>96.18986175115208</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94.83849483849484</v>
+      <c r="M4" t="n">
+        <v>71.42857142857142</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="O4" t="n">
+        <v>88.8888888888889</v>
+      </c>
+      <c r="P4" t="n">
+        <v>93.33333333333333</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>88</v>
+      </c>
+      <c r="R4" t="n">
+        <v>88.05216845935837</v>
+      </c>
+      <c r="S4" t="n">
+        <v>88.05216845935837</v>
+      </c>
+      <c r="T4" t="n">
+        <v>87.14285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -575,28 +729,61 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="C5" t="n">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="D5" t="n">
-        <v>3900</v>
+        <v>1500</v>
       </c>
       <c r="E5" t="n">
-        <v>3800</v>
+        <v>1500</v>
       </c>
       <c r="F5" t="n">
-        <v>96.12903225806451</v>
+        <v>1500</v>
       </c>
       <c r="G5" t="n">
-        <v>15500</v>
+        <v>1500</v>
       </c>
       <c r="H5" t="n">
-        <v>15500</v>
+        <v>1500</v>
       </c>
       <c r="I5" t="n">
-        <v>94.83849483849484</v>
+        <v>1500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>22500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>22500</v>
+      </c>
+      <c r="T5" t="n">
+        <v>87.14285714285714</v>
       </c>
     </row>
   </sheetData>
